--- a/medicine/Psychotrope/Le_Classique_du_thé/Le_Classique_du_thé.xlsx
+++ b/medicine/Psychotrope/Le_Classique_du_thé/Le_Classique_du_thé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Classique_du_th%C3%A9</t>
+          <t>Le_Classique_du_thé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Classique du Thé ou Ch'a Ching (chinois traditionnel : 茶經 chinois simplifié : 茶经 pinyin : chájīng) est le tout premier ouvrage au monde traitant du thé, écrit par Lu Yu entre les années 760 et 780 de notre ère.
 Selon une légende populaire, Lu Yu était un orphelin du canton de Jinling (aujourd'hui canton de Tianmen, dans la province de Hubei), qui fut adopté par un moine bouddhiste du monastère du Nuage du Dragon. Préférant la doctrine confucianiste aux enseignements zen de son beau-père, Lu Yu fut régulièrement puni. Il finit par fuir et s'engagea dans un cirque ambulant. À 14 ans, un gouverneur local nommé Li Qiwu le découvrit et lui accorda la permission d'utiliser sa bibliothèque et d'étudier avec un précepteur. Pendant les rébellions An Lushan et Shi Siming, Lu Yu se retira à Shaoqi (aujourd'hui canton de Wuxing, dans la province de Zhejiang). Il devint alors ami avec de nombreux écrivains de son temps, dont le calligraphe Yian Zhenqing et le poète Huang Pu Zheng et écrivit le Chá jīng.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Classique_du_th%C3%A9</t>
+          <t>Le_Classique_du_thé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Les dix chapitres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Chá jīng (茶经) fut le premier ouvrage au monde de littérature du thé.
 Chapitre 1. Origines
